--- a/final-presentation-rubric.xlsx
+++ b/final-presentation-rubric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebeam/Dropbox/UVM-HCOL185-Fall2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebeam/Dropbox/UVM-HCOL185-Fall2022/HCOL185.f22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2EFB43-A71B-F24C-85FE-5FB993F49E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85198A-1096-FD40-BAC8-33838D02EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2380" windowWidth="27240" windowHeight="15940" xr2:uid="{DF066860-0374-B445-817E-94DC443B8B0C}"/>
+    <workbookView xWindow="360" yWindow="2060" windowWidth="27240" windowHeight="15940" xr2:uid="{DF066860-0374-B445-817E-94DC443B8B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -363,11 +363,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,15 +460,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -407,14 +496,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,15 +837,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81192A-706C-B245-B205-D81A4891E44B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="4" customWidth="1"/>
@@ -748,19 +855,20 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
@@ -773,22 +881,24 @@
       <c r="F2" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="79" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -801,12 +911,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -819,12 +930,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -839,12 +951,13 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -859,12 +972,13 @@
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -879,12 +993,13 @@
       <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -899,12 +1014,13 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -919,12 +1035,13 @@
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -939,12 +1056,13 @@
       <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -959,12 +1077,13 @@
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -979,12 +1098,13 @@
       <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -999,70 +1119,117 @@
       <c r="F14" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B21" s="6">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="89" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="89" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B22" s="6">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
